--- a/Team-Data/2014-15/12-28-2014-15.xlsx
+++ b/Team-Data/2014-15/12-28-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,16 +811,16 @@
         <v>4.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>4</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -765,7 +832,7 @@
         <v>26</v>
       </c>
       <c r="AK2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL2" t="n">
         <v>7</v>
@@ -780,7 +847,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -932,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
         <v>22</v>
@@ -965,10 +1032,10 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
@@ -980,13 +1047,13 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW3" t="n">
         <v>8</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
         <v>20</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>18</v>
@@ -1126,19 +1193,19 @@
         <v>24</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
       </c>
       <c r="AL4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>17</v>
       </c>
       <c r="AN4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO4" t="n">
         <v>22</v>
@@ -1147,13 +1214,13 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR4" t="n">
         <v>25</v>
       </c>
       <c r="AS4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT4" t="n">
         <v>19</v>
@@ -1177,13 +1244,13 @@
         <v>12</v>
       </c>
       <c r="BA4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
         <v>22</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1290,13 +1357,13 @@
         <v>-4.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1305,10 +1372,10 @@
         <v>4</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>26</v>
@@ -1320,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="AN5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO5" t="n">
         <v>23</v>
@@ -1350,7 +1417,7 @@
         <v>30</v>
       </c>
       <c r="AX5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY5" t="n">
         <v>15</v>
@@ -1359,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB5" t="n">
         <v>24</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1472,19 +1539,19 @@
         <v>4.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF6" t="n">
         <v>8</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI6" t="n">
         <v>17</v>
@@ -1493,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1535,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="AY6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>5</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1576,148 +1643,148 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="n">
         <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.621</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
       </c>
       <c r="I7" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J7" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.465</v>
       </c>
       <c r="L7" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.347</v>
+        <v>0.355</v>
       </c>
       <c r="O7" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.5</v>
+        <v>25.8</v>
       </c>
       <c r="Q7" t="n">
         <v>0.769</v>
       </c>
       <c r="R7" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S7" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T7" t="n">
-        <v>40.8</v>
+        <v>40.6</v>
       </c>
       <c r="U7" t="n">
         <v>22.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
         <v>4.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>102.2</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>11</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
         <v>13</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP7" t="n">
         <v>6</v>
       </c>
       <c r="AQ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS7" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>22</v>
       </c>
       <c r="AY7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ7" t="n">
         <v>1</v>
@@ -1726,7 +1793,7 @@
         <v>7</v>
       </c>
       <c r="BB7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1761,13 +1828,13 @@
         <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>0.71</v>
+        <v>0.677</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,40 +1843,40 @@
         <v>41.1</v>
       </c>
       <c r="J8" t="n">
-        <v>86.40000000000001</v>
+        <v>86</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.478</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>27.3</v>
+        <v>26.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.353</v>
       </c>
       <c r="O8" t="n">
-        <v>17.9</v>
+        <v>17.7</v>
       </c>
       <c r="P8" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>23.5</v>
+        <v>23.3</v>
       </c>
       <c r="V8" t="n">
         <v>12.5</v>
@@ -1818,37 +1885,37 @@
         <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
         <v>3.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.8</v>
+        <v>109.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="n">
         <v>6</v>
       </c>
-      <c r="AE8" t="n">
-        <v>4</v>
-      </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>1</v>
@@ -1869,22 +1936,22 @@
         <v>16</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>0.419</v>
+        <v>0.433</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1964,43 +2031,43 @@
         <v>0.43</v>
       </c>
       <c r="L9" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M9" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.317</v>
+        <v>0.319</v>
       </c>
       <c r="O9" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R9" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
         <v>32.9</v>
       </c>
       <c r="T9" t="n">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="V9" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.8</v>
@@ -2012,25 +2079,25 @@
         <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.9</v>
+        <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
         <v>16</v>
@@ -2042,7 +2109,7 @@
         <v>27</v>
       </c>
       <c r="AL9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
         <v>9</v>
@@ -2051,10 +2118,10 @@
         <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AQ9" t="n">
         <v>20</v>
@@ -2075,10 +2142,10 @@
         <v>21</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY9" t="n">
         <v>27</v>
@@ -2093,7 +2160,7 @@
         <v>16</v>
       </c>
       <c r="BC9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -2122,46 +2189,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
         <v>23</v>
       </c>
       <c r="G10" t="n">
-        <v>0.233</v>
+        <v>0.207</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
       </c>
       <c r="I10" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="L10" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="M10" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="O10" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="P10" t="n">
         <v>23.6</v>
       </c>
-      <c r="N10" t="n">
-        <v>0.341</v>
-      </c>
-      <c r="O10" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="P10" t="n">
-        <v>23.1</v>
-      </c>
       <c r="Q10" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="R10" t="n">
         <v>12.7</v>
@@ -2176,10 +2243,10 @@
         <v>20.5</v>
       </c>
       <c r="V10" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W10" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.6</v>
@@ -2191,16 +2258,16 @@
         <v>20</v>
       </c>
       <c r="AA10" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.5</v>
+        <v>95.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-5.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE10" t="n">
         <v>27</v>
@@ -2212,31 +2279,31 @@
         <v>27</v>
       </c>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
         <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
         <v>29</v>
@@ -2245,22 +2312,22 @@
         <v>2</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX10" t="n">
         <v>18</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>17</v>
       </c>
       <c r="AY10" t="n">
         <v>21</v>
@@ -2269,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>25</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>2</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2427,7 +2494,7 @@
         <v>23</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
@@ -2439,7 +2506,7 @@
         <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -2489,91 +2556,91 @@
         <v>28</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="n">
-        <v>0.714</v>
+        <v>0.75</v>
       </c>
       <c r="H12" t="n">
         <v>48.7</v>
       </c>
       <c r="I12" t="n">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="J12" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>34.3</v>
+        <v>34.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.345</v>
       </c>
       <c r="O12" t="n">
-        <v>18.1</v>
+        <v>18.7</v>
       </c>
       <c r="P12" t="n">
-        <v>25.5</v>
+        <v>26.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.712</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
         <v>12.3</v>
       </c>
       <c r="S12" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
         <v>20</v>
       </c>
       <c r="V12" t="n">
-        <v>17.4</v>
+        <v>17</v>
       </c>
       <c r="W12" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="X12" t="n">
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AD12" t="n">
         <v>29</v>
       </c>
       <c r="AE12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="n">
         <v>4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>7</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -2600,7 +2667,7 @@
         <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,22 +2679,22 @@
         <v>11</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
         <v>29</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-1.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>22</v>
@@ -2770,13 +2837,13 @@
         <v>25</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>28</v>
@@ -2791,13 +2858,13 @@
         <v>15</v>
       </c>
       <c r="AS13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2809,16 +2876,16 @@
         <v>14</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF14" t="n">
         <v>10</v>
@@ -2952,7 +3019,7 @@
         <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
@@ -2961,13 +3028,13 @@
         <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3047,82 +3114,82 @@
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="J15" t="n">
-        <v>87.7</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.439</v>
+        <v>0.434</v>
       </c>
       <c r="L15" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>20.1</v>
+        <v>19.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.358</v>
+        <v>0.348</v>
       </c>
       <c r="O15" t="n">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
       <c r="P15" t="n">
-        <v>25</v>
+        <v>25.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.751</v>
       </c>
       <c r="R15" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="S15" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="T15" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
       </c>
       <c r="X15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.5</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>20.7</v>
+        <v>21.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.7</v>
+        <v>102.1</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.5</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>26</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3131,46 +3198,46 @@
         <v>1</v>
       </c>
       <c r="AK15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL15" t="n">
         <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>16</v>
       </c>
       <c r="AM15" t="n">
         <v>21</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW15" t="n">
         <v>14</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>7</v>
@@ -3179,13 +3246,13 @@
         <v>20</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3292,16 +3359,16 @@
         <v>4.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
       </c>
       <c r="AF16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH16" t="n">
         <v>2</v>
@@ -3325,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="AO16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP16" t="n">
         <v>12</v>
@@ -3340,13 +3407,13 @@
         <v>17</v>
       </c>
       <c r="AT16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>10</v>
@@ -3355,13 +3422,13 @@
         <v>25</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB16" t="n">
         <v>12</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3474,13 +3541,13 @@
         <v>-3.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
@@ -3501,13 +3568,13 @@
         <v>12</v>
       </c>
       <c r="AM17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>14</v>
@@ -3665,7 +3732,7 @@
         <v>15</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
         <v>7</v>
@@ -3677,10 +3744,10 @@
         <v>23</v>
       </c>
       <c r="AK18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3689,7 +3756,7 @@
         <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
         <v>22</v>
@@ -3701,19 +3768,19 @@
         <v>22</v>
       </c>
       <c r="AS18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
         <v>28</v>
       </c>
       <c r="AU18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
         <v>28</v>
       </c>
       <c r="AW18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18" t="n">
         <v>24</v>
@@ -3722,7 +3789,7 @@
         <v>13</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3731,7 +3798,7 @@
         <v>19</v>
       </c>
       <c r="BC18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-10.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
         <v>28</v>
@@ -3859,7 +3926,7 @@
         <v>8</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3868,10 +3935,10 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
@@ -3880,13 +3947,13 @@
         <v>27</v>
       </c>
       <c r="AR19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS19" t="n">
         <v>28</v>
       </c>
       <c r="AT19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU19" t="n">
         <v>12</v>
@@ -3895,16 +3962,16 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19" t="n">
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -3942,106 +4009,106 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
       </c>
       <c r="G20" t="n">
-        <v>0.483</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J20" t="n">
-        <v>84.90000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.337</v>
+        <v>0.334</v>
       </c>
       <c r="O20" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P20" t="n">
-        <v>22.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.756</v>
       </c>
       <c r="R20" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31</v>
+        <v>31.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.2</v>
+        <v>42.9</v>
       </c>
       <c r="U20" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>101.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>-1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
@@ -4053,49 +4120,49 @@
         <v>21</v>
       </c>
       <c r="AO20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP20" t="n">
         <v>18</v>
       </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA20" t="n">
         <v>28</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>29</v>
       </c>
       <c r="BB20" t="n">
         <v>15</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -4124,85 +4191,85 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G21" t="n">
-        <v>0.152</v>
+        <v>0.156</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J21" t="n">
-        <v>81.7</v>
+        <v>81.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.448</v>
+        <v>0.453</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N21" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.793</v>
+        <v>0.796</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S21" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="T21" t="n">
-        <v>39.4</v>
+        <v>39.1</v>
       </c>
       <c r="U21" t="n">
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.7</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>94.59999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.8</v>
+        <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>28</v>
@@ -4217,22 +4284,22 @@
         <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
         <v>20</v>
       </c>
       <c r="AL21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>22</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4262,23 +4329,23 @@
         <v>19</v>
       </c>
       <c r="AX21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>28</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="BC21" t="n">
         <v>27</v>
       </c>
-      <c r="AY21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>27</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>28</v>
-      </c>
       <c r="BD21" t="n">
         <v>10</v>
       </c>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -4306,100 +4373,100 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
         <v>15</v>
       </c>
       <c r="F22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>0.469</v>
+        <v>0.484</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J22" t="n">
-        <v>82.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K22" t="n">
-        <v>0.444</v>
+        <v>0.442</v>
       </c>
       <c r="L22" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M22" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="N22" t="n">
         <v>0.324</v>
       </c>
       <c r="O22" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P22" t="n">
         <v>23.6</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.735</v>
+        <v>0.739</v>
       </c>
       <c r="R22" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S22" t="n">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
-        <v>46.3</v>
+        <v>46</v>
       </c>
       <c r="U22" t="n">
         <v>19.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W22" t="n">
         <v>6.7</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB22" t="n">
-        <v>98</v>
+        <v>97.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>14</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI22" t="n">
         <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>19</v>
       </c>
       <c r="AJ22" t="n">
         <v>16</v>
@@ -4408,16 +4475,16 @@
         <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AM22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP22" t="n">
         <v>14</v>
@@ -4429,7 +4496,7 @@
         <v>6</v>
       </c>
       <c r="AS22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT22" t="n">
         <v>2</v>
@@ -4438,28 +4505,28 @@
         <v>30</v>
       </c>
       <c r="AV22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW22" t="n">
         <v>24</v>
       </c>
       <c r="AX22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB22" t="n">
         <v>21</v>
       </c>
       <c r="BC22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -4488,91 +4555,91 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" t="n">
         <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
-        <v>0.375</v>
+        <v>0.364</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J23" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>18.9</v>
+        <v>18.6</v>
       </c>
       <c r="N23" t="n">
         <v>0.377</v>
       </c>
       <c r="O23" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="P23" t="n">
         <v>19</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.722</v>
+        <v>0.723</v>
       </c>
       <c r="R23" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.9</v>
+        <v>32.2</v>
       </c>
       <c r="T23" t="n">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="X23" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.3</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-4.7</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG23" t="n">
         <v>21</v>
@@ -4581,16 +4648,16 @@
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AJ23" t="n">
         <v>27</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL23" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
@@ -4611,13 +4678,13 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AT23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AU23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV23" t="n">
         <v>20</v>
@@ -4629,13 +4696,13 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
         <v>29</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>-11.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
         <v>30</v>
@@ -4766,13 +4833,13 @@
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM24" t="n">
         <v>10</v>
@@ -4781,10 +4848,10 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>19</v>
       </c>
       <c r="AU24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
         <v>25</v>
@@ -4817,7 +4884,7 @@
         <v>23</v>
       </c>
       <c r="BA24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -4852,88 +4919,88 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.548</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J25" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.458</v>
+        <v>0.456</v>
       </c>
       <c r="L25" t="n">
         <v>10.1</v>
       </c>
       <c r="M25" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.369</v>
+        <v>0.368</v>
       </c>
       <c r="O25" t="n">
         <v>17.1</v>
       </c>
       <c r="P25" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q25" t="n">
         <v>0.8</v>
       </c>
       <c r="R25" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T25" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U25" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X25" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.4</v>
+        <v>22.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.7</v>
+        <v>105.3</v>
       </c>
       <c r="AC25" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
         <v>13</v>
@@ -4942,16 +5009,16 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ25" t="n">
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>2</v>
@@ -4978,13 +5045,13 @@
         <v>19</v>
       </c>
       <c r="AT25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>17</v>
       </c>
       <c r="AV25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -4996,16 +5063,16 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
         <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
@@ -5052,67 +5119,67 @@
         <v>39.3</v>
       </c>
       <c r="J26" t="n">
-        <v>86.40000000000001</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
         <v>0.454</v>
       </c>
       <c r="L26" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="M26" t="n">
-        <v>26.6</v>
+        <v>26.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.375</v>
       </c>
       <c r="O26" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="P26" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="R26" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S26" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="T26" t="n">
         <v>46.6</v>
       </c>
       <c r="U26" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V26" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W26" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB26" t="n">
-        <v>104</v>
+        <v>104.1</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
@@ -5124,10 +5191,10 @@
         <v>2</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AJ26" t="n">
         <v>4</v>
@@ -5136,13 +5203,13 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5151,13 +5218,13 @@
         <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5166,22 +5233,22 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-1.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG27" t="n">
         <v>19</v>
@@ -5309,7 +5376,7 @@
         <v>3</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5336,7 +5403,7 @@
         <v>10</v>
       </c>
       <c r="AR27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS27" t="n">
         <v>7</v>
@@ -5345,7 +5412,7 @@
         <v>9</v>
       </c>
       <c r="AU27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV27" t="n">
         <v>27</v>
@@ -5360,13 +5427,13 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
         <v>18</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -5416,34 +5483,34 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.465</v>
+        <v>0.467</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.377</v>
+        <v>0.383</v>
       </c>
       <c r="O28" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.768</v>
+        <v>0.766</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T28" t="n">
         <v>44.4</v>
@@ -5455,28 +5522,28 @@
         <v>14.8</v>
       </c>
       <c r="W28" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>102.9</v>
+        <v>102.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>11</v>
@@ -5497,25 +5564,25 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL28" t="n">
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>24</v>
@@ -5530,10 +5597,10 @@
         <v>5</v>
       </c>
       <c r="AV28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW28" t="n">
         <v>17</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>15</v>
       </c>
       <c r="AX28" t="n">
         <v>6</v>
@@ -5542,13 +5609,13 @@
         <v>11</v>
       </c>
       <c r="AZ28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>9</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -5580,88 +5647,88 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" t="n">
         <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H29" t="n">
         <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>39.4</v>
+        <v>39.2</v>
       </c>
       <c r="J29" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L29" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N29" t="n">
-        <v>0.368</v>
+        <v>0.366</v>
       </c>
       <c r="O29" t="n">
         <v>20.6</v>
       </c>
       <c r="P29" t="n">
-        <v>26.3</v>
+        <v>26.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.784</v>
+        <v>0.79</v>
       </c>
       <c r="R29" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T29" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U29" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="V29" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
         <v>4.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA29" t="n">
         <v>22.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>108.5</v>
+        <v>108.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF29" t="n">
         <v>2</v>
@@ -5670,16 +5737,16 @@
         <v>3</v>
       </c>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5694,19 +5761,19 @@
         <v>3</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS29" t="n">
         <v>27</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>16</v>
@@ -5715,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX29" t="n">
         <v>20</v>
@@ -5724,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="AZ29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
@@ -5855,13 +5922,13 @@
         <v>29</v>
       </c>
       <c r="AI30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ30" t="n">
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>24</v>
@@ -5873,19 +5940,19 @@
         <v>25</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP30" t="n">
         <v>13</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>14</v>
       </c>
       <c r="AS30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
         <v>21</v>
@@ -5894,7 +5961,7 @@
         <v>24</v>
       </c>
       <c r="AV30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW30" t="n">
         <v>26</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
@@ -6022,16 +6089,16 @@
         <v>3.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG31" t="n">
         <v>7</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>6</v>
       </c>
       <c r="AH31" t="n">
         <v>10</v>
@@ -6055,7 +6122,7 @@
         <v>1</v>
       </c>
       <c r="AO31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
@@ -6076,22 +6143,22 @@
         <v>4</v>
       </c>
       <c r="AV31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW31" t="n">
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY31" t="n">
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-28-2014-15</t>
+          <t>2014-12-28</t>
         </is>
       </c>
     </row>
